--- a/Web/wwwroot/Reports/ApartamentsByDate.xlsx
+++ b/Web/wwwroot/Reports/ApartamentsByDate.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>№ Апартаментов</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>ServiceTest3</t>
+  </si>
+  <si>
+    <t>Массаж</t>
   </si>
 </sst>
 </file>
@@ -377,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -476,6 +479,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0">
+        <v>35</v>
+      </c>
+      <c r="C6" s="0">
+        <v>10906</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Web/wwwroot/Reports/ApartamentsByDate.xlsx
+++ b/Web/wwwroot/Reports/ApartamentsByDate.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>№ Апартаментов</t>
   </si>
@@ -45,13 +45,30 @@
     <t>Room Only</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>ServiceTest3</t>
-  </si>
-  <si>
-    <t>Массаж</t>
+    <t>Уборка номера</t>
+  </si>
+  <si>
+    <t>Bed and Breakfast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уборка номера_x000D_
+Доставка газет_x000D_
+Пользование бассейном</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пользование бизнес-центром_x000D_
+Заказ ежедневного блюда из ресторана_x000D_
+Доставка вещей из химчистки/прачечной</t>
+  </si>
+  <si>
+    <t>Full Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доставка газет_x000D_
+Пользование бассейном_x000D_
+Пользование парковкой_x000D_
+Доставка вещей из химчистки/прачечной_x000D_
+Пользование детской игровой комнатой</t>
   </si>
 </sst>
 </file>
@@ -380,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -416,10 +433,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0">
-        <v>3050</v>
+        <v>3250</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>5</v>
@@ -433,16 +450,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C3" s="0">
-        <v>3100</v>
+        <v>4150</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -450,50 +467,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0">
-        <v>4650</v>
+        <v>4100</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C5" s="0">
-        <v>3750</v>
+        <v>6950</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0">
-        <v>35</v>
-      </c>
-      <c r="C6" s="0">
-        <v>10906</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
